--- a/medicine/Enfance/Patrick_Carman/Patrick_Carman.xlsx
+++ b/medicine/Enfance/Patrick_Carman/Patrick_Carman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Carman, né le 27 février 1966 à Salem (Oregon) dans l'Oregon, est un écrivain et scénariste américain. Il est diplômé de l'Université Willamette. Il est célèbre en France pour la série Skeleton Creek.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Carman est un auteur américain particulièrement prolifique. Ses livres pour adultes et pour la jeunesse ont été salués par de nombreux prix et traduits dans plus d’une vingtaine de langues. Il est notamment l'auteur des séries fantastiques Elyon et Atherton publiées chez Bayard Jeunesse.
 Avant de commencer à écrire, il a travaillé pendant dix ans dans la publicité puis dans l'univers du jeu vidéo. De cette expérience, il a conservé une sensibilité particulière pour les nouveaux médias, qui influence ses projets d'écriture actuels. Le concept novateur de Skeleton Creek lui est venu en observant qu’il était temps de combler le fossé entre le livre et les nouvelles technologies. Il a donc créé la société PC Studio, qui a réalisé et produit les vidéos associées au livre.
@@ -546,47 +560,395 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Elyon
-Préquelle : Le Vol du Mirétoiles, Bayard Jeunesse, 2011 ((en) Into the Mist, 2007)
+          <t>Série Elyon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Préquelle : Le Vol du Mirétoiles, Bayard Jeunesse, 2011 ((en) Into the Mist, 2007)
 Le Mystère des Monts Obscurs, Bayard Jeunesse, 2006 ((en) The Dark Hills Divide, 2005)
 La Vallée des épines, Bayard Jeunesse, 2007 ((en) Beyond the Valley of Thorns, 2005)
 La Dixième Cité, Bayard Jeunesse, 2008 ((en) The Tenth City, 2006)
-Au cœur des brumes, Bayard Jeunesse, 2009 ((en) Stargazer, 2008)
-Série Atherton
-Le Palais du pouvoir, Bayard Jeunesse, 2010 ((en) House of Power, 2007)
+Au cœur des brumes, Bayard Jeunesse, 2009 ((en) Stargazer, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Atherton</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Palais du pouvoir, Bayard Jeunesse, 2010 ((en) House of Power, 2007)
 Les Rivières de feu, Bayard Jeunesse, 2011 ((en) Rivers of Fire, 2008)
-(en) The Dark Planet, 2009
-Série Elliot's Park
-(en) Saving Mr. Nibbles, 2008
+(en) The Dark Planet, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Elliot's Park</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Saving Mr. Nibbles, 2008
 (en) Haunted Hike, 2008
-(en) Walnut Cup, 2009
-Univers Les 39 Clés
-Série Les 39 Clés
- Mystère au Kremlin, Bayard Jeunesse, 2011 ((en) The Black Circle, 2009)
-Série Skeleton Creek
-Psychose, Bayard Jeunesse, 2011 ((en) Skeleton Creek, 2009)
+(en) Walnut Cup, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les 39 Clés</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mystère au Kremlin, Bayard Jeunesse, 2011 ((en) The Black Circle, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Skeleton Creek</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Psychose, Bayard Jeunesse, 2011 ((en) Skeleton Creek, 2009)
 Engrenages, Bayard Jeunesse, 2011 ((en) Ghost in the Machine, 2009)
 Le Crâne, Bayard Jeunesse, 2011 ((en) The Crossbones, 2010)
 Le Corbeau, Bayard Jeunesse, 2012 ((en) The Raven, 2011)
-(en) The Phantom Room, 2014
-Série Trackers
-Glyphmaster, Bayard Jeunesse, 2012 ((en) Trackers, 2010)
-Shantorian, Bayard Jeunesse, 2013 ((en) Shantorian, 2011)
-Série Dark Eden
-Dark Eden, City, 2012 ((en) Dark Eden, 2011)
-(en) Eve of Destruction, 2012
-Série Colvert Palace
-Mystères à chaque étage, Bayard Jeunesse, 2013 ((en) Floors, 2011)
+(en) The Phantom Room, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Trackers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Glyphmaster, Bayard Jeunesse, 2012 ((en) Trackers, 2010)
+Shantorian, Bayard Jeunesse, 2013 ((en) Shantorian, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Dark Eden</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dark Eden, City, 2012 ((en) Dark Eden, 2011)
+(en) Eve of Destruction, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Colvert Palace</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mystères à chaque étage, Bayard Jeunesse, 2013 ((en) Floors, 2011)
 Troisième sous-sol, Bayard Jeunesse, 2014 ((en) 3 Below, 2012)
-Le Domaine des inventions farfelues, Bayard Jeunesse, 2015 ((en) The Field of Wacky Inventions, 2013)
-Série Pulsation
-Pulsation, Ada, 2015 ((en) Pulse, 2013)
+Le Domaine des inventions farfelues, Bayard Jeunesse, 2015 ((en) The Field of Wacky Inventions, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Pulsation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pulsation, Ada, 2015 ((en) Pulse, 2013)
 Tremblement, Ada, 2015 ((en) Tremor, 2014)
-Séisme, Ada, 2016 ((en) Quake, 2015)
-Romans indépendants
-Treize jours avant minuit, Bayard Jeunesse, 2013 ((en) Thirteen Days to Midnight, 2010)
-Recueils de nouvelles
-(en) 3:15 Season One: Things That Go Bump in the Night, 2011</t>
+Séisme, Ada, 2016 ((en) Quake, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Treize jours avant minuit, Bayard Jeunesse, 2013 ((en) Thirteen Days to Midnight, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Carman</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) 3:15 Season One: Things That Go Bump in the Night, 2011</t>
         </is>
       </c>
     </row>
